--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__PFT_TRY.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__PFT_TRY.xlsx
@@ -456,60 +456,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>Acer campestre</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Acer campestre</t>
+          <t>Acer negundo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acer negundo</t>
+          <t>Acer platanoides</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acer platanoides</t>
+          <t>Acer pseudoplatanus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acer pseudoplatanus</t>
+          <t>Acer species</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Allium species</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>Apiaceae species</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Asteraceae</t>
+          <t>Asteraceae species</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Betula species</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -804,12 +804,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brassicaceae</t>
+          <t>Brassicaceae species</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(shrub/tree)</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>not assigned (shrub/tree)</t>
+          <t>(shrub/tree)</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1212,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Draba</t>
+          <t>Draba species</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>not assigned (fern)</t>
+          <t>(fern)</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Festuca</t>
+          <t>Festuca ovina</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Festuca ovina</t>
+          <t>Festuca rubra</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Festuca rubra</t>
+          <t>Festuca rupicola</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Festuca rupicola</t>
+          <t>Festuca species</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Geranium</t>
+          <t>Geranium molle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Geranium molle</t>
+          <t>Geranium pratense</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Geranium pratense</t>
+          <t>Geranium pusillum</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Geranium pusillum</t>
+          <t>Geranium pyrenaicum</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Geranium pyrenaicum</t>
+          <t>Geranium rotundifolium</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1572,12 +1572,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Geranium rotundifolium</t>
+          <t>Geranium species</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Medicago</t>
+          <t>Medicago falcata</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Medicago falcata</t>
+          <t>Medicago lupulina</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1920,12 +1920,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Medicago lupulina</t>
+          <t>Medicago species</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>legume</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Poaceae</t>
+          <t>Poaceae species</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(shrub/tree)</t>
         </is>
       </c>
     </row>
@@ -2232,36 +2232,36 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Prunus</t>
+          <t>Prunus avium</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(tree)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Prunus avium</t>
+          <t>Prunus mahaleb</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>not assigned (tree)</t>
+          <t>(shrub/tree)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Prunus mahaleb</t>
+          <t>Prunus species</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>not assigned (shrub/tree)</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2328,36 +2328,36 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Rubus</t>
+          <t>Rubus caesius</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(shrub)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Rubus caesius</t>
+          <t>Rubus idaeus</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>not assigned (shrub)</t>
+          <t>(shrub)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rubus idaeus</t>
+          <t>Rubus species</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>not assigned (shrub)</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>not assigned (shrub/tree)</t>
+          <t>(shrub/tree)</t>
         </is>
       </c>
     </row>
@@ -2424,24 +2424,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Senecio</t>
+          <t>Senecio jacobaea</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>not assigned (herb/shrub)</t>
+          <t>forb</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Senecio jacobaea</t>
+          <t>Senecio species</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>forb</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>not assigned ()</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Triticum</t>
+          <t>Triticum species</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Vicia</t>
+          <t>Vicia cracca</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Vicia cracca</t>
+          <t>Vicia hirsuta</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3000,7 +3000,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vicia hirsuta</t>
+          <t>Vicia sativa</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Vicia sativa</t>
+          <t>Vicia sepium</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vicia sepium</t>
+          <t>Vicia species</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>legume</t>
+          <t>not assigned</t>
         </is>
       </c>
     </row>
